--- a/Upcoming Leave/Upcoming Leaves.xlsx
+++ b/Upcoming Leave/Upcoming Leaves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Upcoming Leave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67B209C-5B07-4C4D-AD80-712000DDA305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BA5F0B-65AD-4B28-ABAF-DD09B7098F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="72">
   <si>
     <t>Red Sea - HC-02 &amp; HC-03</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Scaffolder</t>
   </si>
   <si>
-    <t>On annual leave</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wasi </t>
   </si>
   <si>
@@ -213,7 +210,46 @@
     <t>Haseeb</t>
   </si>
   <si>
-    <t>HC-03</t>
+    <t xml:space="preserve">Flight  confimred </t>
+  </si>
+  <si>
+    <t>Ahmad Zezuli</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>20/05/2025</t>
+  </si>
+  <si>
+    <t>Ratana Chandra das</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>Zihadul Islam</t>
+  </si>
+  <si>
+    <t>13/08/2025</t>
+  </si>
+  <si>
+    <t>Annual leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleem </t>
+  </si>
+  <si>
+    <t>26/08/2025</t>
+  </si>
+  <si>
+    <t>Asad khan</t>
+  </si>
+  <si>
+    <t>Md Babul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flight confimred </t>
   </si>
 </sst>
 </file>
@@ -289,10 +325,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -557,7 +595,9 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,7 +894,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="A1:XFD1048576"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.05" customHeight="1"/>
@@ -897,7 +937,7 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -921,7 +961,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8" t="s">
@@ -942,11 +982,9 @@
         <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1025,7 +1063,7 @@
     </row>
     <row r="9" spans="1:7" ht="16.05" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="5">
         <v>2808</v>
@@ -1034,11 +1072,11 @@
         <v>37</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="22" t="s">
-        <v>59</v>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G9" s="9">
         <v>45782</v>
@@ -1147,11 +1185,9 @@
         <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1160,13 +1196,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.05" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="8">
-        <v>2878</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2885</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1178,19 +1214,19 @@
       <c r="F15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="9">
-        <v>45816</v>
+      <c r="G15" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.05" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="8">
-        <v>2738</v>
+        <v>2878</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>10</v>
@@ -1201,19 +1237,19 @@
       <c r="F16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>20</v>
+      <c r="G16" s="9">
+        <v>45816</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.05" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="8">
-        <v>2820</v>
+        <v>2738</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>10</v>
@@ -1225,41 +1261,41 @@
         <v>12</v>
       </c>
       <c r="G17" s="9">
-        <v>45937</v>
+        <v>45664</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.05" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B18" s="8">
-        <v>3004</v>
+        <v>2820</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="9">
-        <v>45938</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.05" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B19" s="8">
-        <v>2905</v>
+        <v>3004</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>10</v>
@@ -1271,64 +1307,64 @@
         <v>12</v>
       </c>
       <c r="G19" s="9">
-        <v>45969</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.05" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B20" s="8">
-        <v>2817</v>
+        <v>2905</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="9">
-        <v>45937</v>
+        <v>45969</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.05" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="8">
-        <v>2802</v>
+        <v>2817</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="G21" s="9">
+        <v>45937</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.05" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B22" s="8">
-        <v>2581</v>
+        <v>2802</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>10</v>
@@ -1340,61 +1376,61 @@
         <v>38</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.05" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="8">
-        <v>2812</v>
+        <v>2581</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.05" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="8">
-        <v>2778</v>
+        <v>2812</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="9">
-        <v>45665</v>
+      <c r="G24" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.05" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="8">
-        <v>3328</v>
+        <v>2778</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>34</v>
@@ -1402,45 +1438,45 @@
       <c r="D25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>22</v>
+      <c r="E25" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="9">
-        <v>45663</v>
+        <v>45665</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.05" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="8">
-        <v>1926</v>
+        <v>3328</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>11</v>
+      <c r="E26" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G26" s="9">
-        <v>45722</v>
+        <v>45663</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.05" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="8">
-        <v>2097</v>
+        <v>1926</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>46</v>
@@ -1448,157 +1484,237 @@
       <c r="D27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>22</v>
+      <c r="E27" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G27" s="9">
-        <v>45784</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.05" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="8">
-        <v>2649</v>
+        <v>2097</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F28" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G28" s="9">
-        <v>45935</v>
+        <v>45784</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.05" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="8">
-        <v>2897</v>
+        <v>2649</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E29" s="7"/>
       <c r="F29" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="9">
+        <v>45935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.05" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="8">
+        <v>2897</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="9">
         <v>45906</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
-      <c r="A30" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="15">
-        <v>2317</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="18">
-        <v>45996</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
       <c r="A31" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="15">
+        <v>2317</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="18">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
+      <c r="A32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="15">
+        <v>3005</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="15">
-        <v>3005</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="17" t="s">
+      <c r="D32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="18">
+        <v>45938</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
+      <c r="A33" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="15">
+        <v>3327</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
+      <c r="A34" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="15">
+        <v>2207</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
+      <c r="A35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F35" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="18">
-        <v>45938</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="18"/>
+      <c r="G35" s="18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="18"/>
+      <c r="A36" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="15">
+        <v>3390</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="18"/>
+      <c r="A37" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="15">
+        <v>2890</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="18">
+        <v>45877</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
       <c r="A38" s="14"/>
@@ -1763,12 +1879,11 @@
       <c r="G55" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>